--- a/_output/AM/UI Results/UI Result - p10(a) VS b1(a).xlsx
+++ b/_output/AM/UI Results/UI Result - p10(a) VS b1(a).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Feature</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Chi Square</t>
   </si>
   <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
     <t>Is Significant</t>
   </si>
   <si>
@@ -56,6 +62,60 @@
   </si>
   <si>
     <t>a7</t>
+  </si>
+  <si>
+    <t>[707  45] ; [283 105]</t>
+  </si>
+  <si>
+    <t>[632 122] ; [266 132]</t>
+  </si>
+  <si>
+    <t>[646 102] ; [295 101]</t>
+  </si>
+  <si>
+    <t>[641 109] ; [292 100]</t>
+  </si>
+  <si>
+    <t>[677  77] ; [320  78]</t>
+  </si>
+  <si>
+    <t>[713  36] ; [347  47]</t>
+  </si>
+  <si>
+    <t>[714  33] ; [353  41]</t>
+  </si>
+  <si>
+    <t>[702  42] ; [348  45]</t>
+  </si>
+  <si>
+    <t>[549 203] ; [250 146]</t>
+  </si>
+  <si>
+    <t>[653.05263158  98.94736842] ; [336.94736842  51.05263158]</t>
+  </si>
+  <si>
+    <t>[587.75347222 166.24652778] ; [310.24652778  87.75347222]</t>
+  </si>
+  <si>
+    <t>[615.26923077 132.73076923] ; [325.73076923  70.26923077]</t>
+  </si>
+  <si>
+    <t>[612.7408056 137.2591944] ; [320.2591944  71.7408056]</t>
+  </si>
+  <si>
+    <t>[652.55034722 101.44965278] ; [344.44965278  53.55034722]</t>
+  </si>
+  <si>
+    <t>[694.61067367  54.38932633] ; [365.38932633  28.61067367]</t>
+  </si>
+  <si>
+    <t>[698.55302366  48.44697634] ; [368.44697634  25.55302366]</t>
+  </si>
+  <si>
+    <t>[687.07124011  56.92875989] ; [362.92875989  30.07124011]</t>
+  </si>
+  <si>
+    <t>[523.38675958 228.61324042] ; [275.61324042 120.38675958]</t>
   </si>
 </sst>
 </file>
@@ -413,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,13 +495,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -452,16 +518,22 @@
       <c r="E2">
         <v>99.512827</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -472,16 +544,22 @@
       <c r="E3">
         <v>43.727169</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -492,16 +570,22 @@
       <c r="E4">
         <v>24.988633</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -512,16 +596,22 @@
       <c r="E5">
         <v>20.746393</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -532,16 +622,22 @@
       <c r="E6">
         <v>19.707047</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -552,16 +648,22 @@
       <c r="E7">
         <v>19.449495</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -572,16 +674,22 @@
       <c r="E8">
         <v>15.252145</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -592,16 +700,22 @@
       <c r="E9">
         <v>12.264641</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -612,7 +726,13 @@
       <c r="E10">
         <v>11.952795</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
     </row>
